--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,47 +1110,159 @@
         <v>29000000</v>
       </c>
       <c r="L12" t="n">
-        <v>22000000</v>
+        <v>29000000</v>
       </c>
       <c r="M12" t="n">
         <v>0.13</v>
       </c>
       <c r="N12" t="n">
-        <v>2860000</v>
+        <v>3770000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>593</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">trần thị ngọc bích </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="I13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>595</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">trương thị lan </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="I14" t="n">
+        <v/>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>96700000</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>129700000</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>11000000</v>
       </c>
-      <c r="K13" t="n">
-        <v>107700000</v>
-      </c>
-      <c r="L13" t="n">
-        <v>100700000</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10710000</v>
+      <c r="K15" t="n">
+        <v>140700000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>140700000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>14920000</v>
       </c>
     </row>
   </sheetData>
@@ -1164,7 +1276,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1967,47 +2079,159 @@
         <v>29000000</v>
       </c>
       <c r="L14" t="n">
-        <v>22000000</v>
+        <v>29000000</v>
       </c>
       <c r="M14" t="n">
         <v>0.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2200000</v>
+        <v>2900000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>593</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">trần thị ngọc bích </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="I15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>594</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>thạch thị sơ ri</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="I16" t="n">
+        <v/>
+      </c>
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>81600000</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>131600000</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>10000000</v>
       </c>
-      <c r="K15" t="n">
-        <v>91600000</v>
-      </c>
-      <c r="L15" t="n">
-        <v>73600000</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7360000</v>
+      <c r="K17" t="n">
+        <v>141600000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>130600000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13060000</v>
       </c>
     </row>
   </sheetData>
@@ -3452,7 +3676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3473,21 +3697,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ngày công</t>
+          <t>Tổng công tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp</t>
+          <t>Phụ cấp tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>875000</v>
+        <v>980000</v>
       </c>
     </row>
     <row r="4">
@@ -3497,7 +3721,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3422619.047619048</v>
+        <v>3833333.333333333</v>
       </c>
     </row>
     <row r="5">
@@ -3583,17 +3807,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3422619.047619048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Phụ cấp tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -3603,7 +3827,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3613,17 +3837,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>900000</v>
+        <v>3833333.333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3633,7 +3857,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3643,17 +3867,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3663,57 +3887,57 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3422619.047619048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Phụ cấp tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3723,7 +3947,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3733,71 +3957,131 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>3833333.333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>300000</v>
+        <v>10310000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16673619.04761905</v>
+        <v>8200000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4322619.047619048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>12322619.04761905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>17189333.33333333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4733333.333333333</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>22643333.33333333</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>33318857.14285715</v>
+      <c r="B40" t="n">
+        <v>44566000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
@@ -3676,7 +3676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3817,7 +3817,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Phụ cấp tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -3827,27 +3827,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3833333.333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3833333.333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3857,27 +3857,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>900000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3887,7 +3887,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3897,7 +3897,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3907,27 +3907,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -3937,47 +3937,47 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Phụ cấp tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>3833333.333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>10310000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3833333.333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10310000</v>
+        <v>8200000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3987,17 +3987,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -4007,80 +4007,60 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>300000</v>
+        <v>17189333.33333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0</v>
+        <v>4733333.333333333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17189333.33333333</v>
+        <v>22643333.33333333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4733333.333333333</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>22643333.33333333</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
         <v>44566000</v>
       </c>
     </row>
